--- a/outputs-r202/g__UBA7741_train.xlsx
+++ b/outputs-r202/g__UBA7741_train.xlsx
@@ -687,7 +687,7 @@
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002472645.1_6.fasta</t>
+          <t>GB_GCA_002480845.1_0.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -708,7 +708,7 @@
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002480845.1_11.fasta</t>
+          <t>GB_GCA_002481105.1_19.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -729,28 +729,28 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002480845.1_3.fasta</t>
+          <t>GB_GCA_902757255.1_9.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4791666999999999</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5208333000000001</v>
+        <v>2.220446049250264e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5208333000000001</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>s__UBA7741 sp900314575</t>
+          <t>s__UBA7741 sp900314495</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002481105.1_5.fasta</t>
+          <t>GB_GCA_902802415.1_10.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -771,28 +771,28 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002481765.1_13.fasta</t>
+          <t>GB_GCA_002480845.1_4.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4791666999999999</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5208333000000001</v>
+        <v>2.220446049250264e-14</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5208333000000001</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>s__UBA7741 sp900314575</t>
+          <t>s__UBA7741 sp900314495</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002481765.1_7.fasta</t>
+          <t>GB_GCA_900314495.1_13.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -813,7 +813,7 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902802415.1_8.fasta</t>
+          <t>GB_GCA_900314495.1_16.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -834,7 +834,7 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002480845.1_19.fasta</t>
+          <t>GB_GCA_900314495.1_18.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -855,7 +855,7 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002481105.1_0.fasta</t>
+          <t>GB_GCA_902757255.1_12.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -876,7 +876,7 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002481105.1_11.fasta</t>
+          <t>GB_GCA_902791575.1_16.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -897,7 +897,7 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900314495.1_0.fasta</t>
+          <t>GB_GCA_002472085.1_19.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -918,7 +918,7 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902757255.1_2.fasta</t>
+          <t>GB_GCA_002472645.1_8.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -939,7 +939,7 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902791575.1_11.fasta</t>
+          <t>GB_GCA_900314495.1_15.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -960,7 +960,7 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902791575.1_14.fasta</t>
+          <t>GB_GCA_900314495.1_8.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -981,7 +981,7 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002472085.1_19.fasta</t>
+          <t>GB_GCA_902757255.1_17.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1002,7 +1002,7 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002472645.1_8.fasta</t>
+          <t>GB_GCA_902757255.1_7.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1023,7 +1023,7 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900314495.1_15.fasta</t>
+          <t>GB_GCA_002480845.1_19.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1044,7 +1044,7 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900314495.1_8.fasta</t>
+          <t>GB_GCA_002481105.1_0.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1065,7 +1065,7 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902757255.1_17.fasta</t>
+          <t>GB_GCA_002481105.1_11.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1086,7 +1086,7 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902757255.1_7.fasta</t>
+          <t>GB_GCA_900314495.1_0.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1107,7 +1107,7 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002480845.1_4.fasta</t>
+          <t>GB_GCA_902757255.1_2.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1128,7 +1128,7 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900314495.1_13.fasta</t>
+          <t>GB_GCA_902791575.1_11.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1149,7 +1149,7 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900314495.1_16.fasta</t>
+          <t>GB_GCA_902791575.1_14.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1170,7 +1170,7 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900314495.1_18.fasta</t>
+          <t>GB_GCA_002472645.1_6.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1191,7 +1191,7 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902757255.1_12.fasta</t>
+          <t>GB_GCA_002480845.1_11.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1212,28 +1212,28 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902791575.1_16.fasta</t>
+          <t>GB_GCA_002480845.1_3.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.4791666999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.5208333000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.5208333000000001</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>s__UBA7741 sp900314495</t>
+          <t>s__UBA7741 sp900314575</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002480845.1_0.fasta</t>
+          <t>GB_GCA_002481105.1_5.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1254,28 +1254,28 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002481105.1_19.fasta</t>
+          <t>GB_GCA_002481765.1_13.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.4791666999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.5208333000000001</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.5208333000000001</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>s__UBA7741 sp900314495</t>
+          <t>s__UBA7741 sp900314575</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902757255.1_9.fasta</t>
+          <t>GB_GCA_002481765.1_7.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1296,7 +1296,7 @@
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902802415.1_10.fasta</t>
+          <t>GB_GCA_902802415.1_8.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1468,7 +1468,7 @@
     <row r="7">
       <c r="A7" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900314575.1_13.fasta</t>
+          <t>GB_GCA_900314575.1_10.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1489,7 +1489,7 @@
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900314575.1_6.fasta</t>
+          <t>GB_GCA_900314575.1_4.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1510,7 +1510,7 @@
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902756255.1_11.fasta</t>
+          <t>GB_GCA_902756255.1_0.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1531,7 +1531,7 @@
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902756255.1_6.fasta</t>
+          <t>GB_GCA_902756255.1_10.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1552,7 +1552,7 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902756255.1_8.fasta</t>
+          <t>GB_GCA_902756255.1_18.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1573,7 +1573,7 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900314575.1_12.fasta</t>
+          <t>GB_GCA_902756255.1_2.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1594,7 +1594,7 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900314575.1_18.fasta</t>
+          <t>GB_GCA_902756255.1_3.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1615,7 +1615,7 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900314575.1_8.fasta</t>
+          <t>GB_GCA_902756255.1_5.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1636,7 +1636,7 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902756255.1_13.fasta</t>
+          <t>GB_GCA_900314575.1_0.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1657,7 +1657,7 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902756255.1_14.fasta</t>
+          <t>GB_GCA_900314575.1_1.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1678,7 +1678,7 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900314575.1_14.fasta</t>
+          <t>GB_GCA_900314575.1_9.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1699,7 +1699,7 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900314575.1_15.fasta</t>
+          <t>GB_GCA_902756255.1_15.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1720,7 +1720,7 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900314575.1_5.fasta</t>
+          <t>GB_GCA_902756255.1_19.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1741,28 +1741,28 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902756255.1_16.fasta</t>
+          <t>GB_GCA_902756255.1_4.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>s__UBA7741 sp900314495</t>
+          <t>s__UBA7741 sp900314575</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902756255.1_7.fasta</t>
+          <t>GB_GCA_900314575.1_14.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1783,7 +1783,7 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902756255.1_9.fasta</t>
+          <t>GB_GCA_900314575.1_15.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1804,7 +1804,7 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900314575.1_0.fasta</t>
+          <t>GB_GCA_900314575.1_5.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1825,28 +1825,28 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900314575.1_1.fasta</t>
+          <t>GB_GCA_902756255.1_16.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>s__UBA7741 sp900314575</t>
+          <t>s__UBA7741 sp900314495</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900314575.1_9.fasta</t>
+          <t>GB_GCA_902756255.1_7.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1867,7 +1867,7 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902756255.1_15.fasta</t>
+          <t>GB_GCA_902756255.1_9.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1888,7 +1888,7 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902756255.1_19.fasta</t>
+          <t>GB_GCA_900314575.1_12.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1909,7 +1909,7 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902756255.1_4.fasta</t>
+          <t>GB_GCA_900314575.1_18.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1930,7 +1930,7 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900314575.1_10.fasta</t>
+          <t>GB_GCA_900314575.1_8.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1951,7 +1951,7 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900314575.1_4.fasta</t>
+          <t>GB_GCA_902756255.1_13.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1972,7 +1972,7 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902756255.1_0.fasta</t>
+          <t>GB_GCA_902756255.1_14.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1993,7 +1993,7 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902756255.1_10.fasta</t>
+          <t>GB_GCA_900314575.1_13.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -2014,7 +2014,7 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902756255.1_18.fasta</t>
+          <t>GB_GCA_900314575.1_6.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -2035,7 +2035,7 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902756255.1_2.fasta</t>
+          <t>GB_GCA_902756255.1_11.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -2056,7 +2056,7 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902756255.1_3.fasta</t>
+          <t>GB_GCA_902756255.1_6.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -2077,7 +2077,7 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902756255.1_5.fasta</t>
+          <t>GB_GCA_902756255.1_8.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
